--- a/Experimentos2/MOORA.xlsx
+++ b/Experimentos2/MOORA.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>11:38:42.307686</t>
-  </si>
-  <si>
-    <t>11:38:44.072193</t>
+    <t>19:15:56.117880</t>
+  </si>
+  <si>
+    <t>19:15:56.259067</t>
   </si>
   <si>
     <t>C1</t>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>2.042253472222222E-05</v>
+        <v>1.634108796296296E-06</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/MOORA.xlsx
+++ b/Experimentos2/MOORA.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>19:15:56.117880</t>
-  </si>
-  <si>
-    <t>19:15:56.259067</t>
+    <t>20:03:24.522119</t>
+  </si>
+  <si>
+    <t>20:03:24.706962</t>
   </si>
   <si>
     <t>C1</t>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>1.634108796296296E-06</v>
+        <v>2.139386574074074E-06</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/MOORA.xlsx
+++ b/Experimentos2/MOORA.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>20:03:24.522119</t>
-  </si>
-  <si>
-    <t>20:03:24.706962</t>
+    <t>00:40:22.840179</t>
+  </si>
+  <si>
+    <t>00:40:22.887462</t>
   </si>
   <si>
     <t>C1</t>
@@ -485,13 +485,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45328</v>
+        <v>45333</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>2.139386574074074E-06</v>
+        <v>5.472569444444445E-07</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2602149606003034</v>
+        <v>0.2683093956761887</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1268498535826793</v>
+        <v>0.1357874589789693</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09350902958561932</v>
+        <v>0.1075056569043377</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -821,10 +821,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09313165146498364</v>
+        <v>0.102927241341725</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -832,10 +832,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08960515027933041</v>
+        <v>0.1027437931175975</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08700894109991579</v>
+        <v>0.09965649590598662</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -854,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08478331760017842</v>
+        <v>0.09646313955007417</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -865,10 +865,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08465875506440806</v>
+        <v>0.09591316582952074</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08023834072258169</v>
+        <v>0.09069365269560024</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>

--- a/Experimentos2/MOORA.xlsx
+++ b/Experimentos2/MOORA.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>00:40:22.840179</t>
-  </si>
-  <si>
-    <t>00:40:22.887462</t>
+    <t>15:04:52.273132</t>
+  </si>
+  <si>
+    <t>15:04:52.349180</t>
   </si>
   <si>
     <t>C1</t>
@@ -485,13 +485,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45333</v>
+        <v>45340</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>5.472569444444445E-07</v>
+        <v>8.801851851851852E-07</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2683093956761887</v>
+        <v>0.2602149606003034</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1357874589789693</v>
+        <v>0.1268498535826793</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1075056569043377</v>
+        <v>0.09350902958561932</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -821,10 +821,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.102927241341725</v>
+        <v>0.09313165146498364</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -832,10 +832,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1027437931175975</v>
+        <v>0.08960515027933041</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09965649590598662</v>
+        <v>0.08700894109991579</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -854,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09646313955007417</v>
+        <v>0.08478331760017842</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -865,10 +865,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09591316582952074</v>
+        <v>0.08465875506440806</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09069365269560024</v>
+        <v>0.08023834072258169</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>

--- a/Experimentos2/MOORA.xlsx
+++ b/Experimentos2/MOORA.xlsx
@@ -9,17 +9,20 @@
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
     <sheet name="w" sheetId="2" r:id="rId2"/>
-    <sheet name="Matriz" sheetId="3" r:id="rId3"/>
-    <sheet name="Ranking_alternativas" sheetId="4" r:id="rId4"/>
+    <sheet name="Matriz_decisión" sheetId="3" r:id="rId3"/>
+    <sheet name="Matriz_normaliza" sheetId="4" r:id="rId4"/>
+    <sheet name="Matriz_ponderadss" sheetId="5" r:id="rId5"/>
+    <sheet name="Evaluación_cada_alternativa" sheetId="6" r:id="rId6"/>
+    <sheet name="Ranking_alternativas" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
-  <si>
-    <t>Algoritmo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+  <si>
+    <t>Método</t>
   </si>
   <si>
     <t>Hora de inicio</t>
@@ -34,13 +37,13 @@
     <t>Tiempo de ejecución</t>
   </si>
   <si>
-    <t>TOPSIS</t>
-  </si>
-  <si>
-    <t>15:04:52.273132</t>
-  </si>
-  <si>
-    <t>15:04:52.349180</t>
+    <t>MOORA</t>
+  </si>
+  <si>
+    <t>08:19:34.171939</t>
+  </si>
+  <si>
+    <t>08:19:34.321234</t>
   </si>
   <si>
     <t>C1</t>
@@ -485,13 +488,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45340</v>
+        <v>45344</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>8.801851851851852E-07</v>
+        <v>1.727951388888889E-06</v>
       </c>
     </row>
   </sheetData>
@@ -769,6 +772,516 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0.2083375720152054</v>
+      </c>
+      <c r="C2">
+        <v>0.2039972059315553</v>
+      </c>
+      <c r="D2">
+        <v>0.303825625855508</v>
+      </c>
+      <c r="E2">
+        <v>0.3776118492775598</v>
+      </c>
+      <c r="F2">
+        <v>0.8246695558935215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.3767116807470081</v>
+      </c>
+      <c r="C3">
+        <v>0.3696039131857438</v>
+      </c>
+      <c r="D3">
+        <v>0.469112659043444</v>
+      </c>
+      <c r="E3">
+        <v>0.5757291724624086</v>
+      </c>
+      <c r="F3">
+        <v>0.4122505185533296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.435711569384711</v>
+      </c>
+      <c r="C4">
+        <v>0.435711569384711</v>
+      </c>
+      <c r="D4">
+        <v>0.5045081329717706</v>
+      </c>
+      <c r="E4">
+        <v>0.5809487591796145</v>
+      </c>
+      <c r="F4">
+        <v>0.1681693776572568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.5050507999704219</v>
+      </c>
+      <c r="C5">
+        <v>0.5050507999704219</v>
+      </c>
+      <c r="D5">
+        <v>0.5131967806151061</v>
+      </c>
+      <c r="E5">
+        <v>0.472466877391685</v>
+      </c>
+      <c r="F5">
+        <v>0.05702186451278957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.4570457384968361</v>
+      </c>
+      <c r="C6">
+        <v>0.4570457384968361</v>
+      </c>
+      <c r="D6">
+        <v>0.4847454802239171</v>
+      </c>
+      <c r="E6">
+        <v>0.5886195117004707</v>
+      </c>
+      <c r="F6">
+        <v>0.02769974172708097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.5265986789267755</v>
+      </c>
+      <c r="C7">
+        <v>0.5341215171971578</v>
+      </c>
+      <c r="D7">
+        <v>0.4965073258452454</v>
+      </c>
+      <c r="E7">
+        <v>0.4363246196821853</v>
+      </c>
+      <c r="F7">
+        <v>0.02256851481114752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0.5618489835023651</v>
+      </c>
+      <c r="C8">
+        <v>0.5618489835023651</v>
+      </c>
+      <c r="D8">
+        <v>0.4944271054820814</v>
+      </c>
+      <c r="E8">
+        <v>0.3520920296614822</v>
+      </c>
+      <c r="F8">
+        <v>0.01498263956006307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.587738403596496</v>
+      </c>
+      <c r="C9">
+        <v>0.587738403596496</v>
+      </c>
+      <c r="D9">
+        <v>0.4910219574350473</v>
+      </c>
+      <c r="E9">
+        <v>0.2603904319731312</v>
+      </c>
+      <c r="F9">
+        <v>0.01487945325560749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.5764027876576274</v>
+      </c>
+      <c r="C10">
+        <v>0.5764027876576274</v>
+      </c>
+      <c r="D10">
+        <v>0.4583443853663061</v>
+      </c>
+      <c r="E10">
+        <v>0.3541752068739638</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0.08333502880608218</v>
+      </c>
+      <c r="C2">
+        <v>0.04079944118631107</v>
+      </c>
+      <c r="D2">
+        <v>0.009114768775665239</v>
+      </c>
+      <c r="E2">
+        <v>0.02643282944942919</v>
+      </c>
+      <c r="F2">
+        <v>0.2474008667680564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.1506846722988032</v>
+      </c>
+      <c r="C3">
+        <v>0.07392078263714875</v>
+      </c>
+      <c r="D3">
+        <v>0.01407337977130332</v>
+      </c>
+      <c r="E3">
+        <v>0.04030104207236861</v>
+      </c>
+      <c r="F3">
+        <v>0.1236751555659989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.1742846277538844</v>
+      </c>
+      <c r="C4">
+        <v>0.0871423138769422</v>
+      </c>
+      <c r="D4">
+        <v>0.01513524398915312</v>
+      </c>
+      <c r="E4">
+        <v>0.04066641314257302</v>
+      </c>
+      <c r="F4">
+        <v>0.05045081329717705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.2020203199881688</v>
+      </c>
+      <c r="C5">
+        <v>0.1010101599940844</v>
+      </c>
+      <c r="D5">
+        <v>0.01539590341845318</v>
+      </c>
+      <c r="E5">
+        <v>0.03307268141741795</v>
+      </c>
+      <c r="F5">
+        <v>0.01710655935383687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.1828182953987344</v>
+      </c>
+      <c r="C6">
+        <v>0.09140914769936721</v>
+      </c>
+      <c r="D6">
+        <v>0.01454236440671751</v>
+      </c>
+      <c r="E6">
+        <v>0.04120336581903295</v>
+      </c>
+      <c r="F6">
+        <v>0.008309922518124291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.2106394715707102</v>
+      </c>
+      <c r="C7">
+        <v>0.1068243034394316</v>
+      </c>
+      <c r="D7">
+        <v>0.01489521977535736</v>
+      </c>
+      <c r="E7">
+        <v>0.03054272337775298</v>
+      </c>
+      <c r="F7">
+        <v>0.006770554443344255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0.2247395934009461</v>
+      </c>
+      <c r="C8">
+        <v>0.112369796700473</v>
+      </c>
+      <c r="D8">
+        <v>0.01483281316446244</v>
+      </c>
+      <c r="E8">
+        <v>0.02464644207630376</v>
+      </c>
+      <c r="F8">
+        <v>0.004494791868018921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.2350953614385984</v>
+      </c>
+      <c r="C9">
+        <v>0.1175476807192992</v>
+      </c>
+      <c r="D9">
+        <v>0.01473065872305142</v>
+      </c>
+      <c r="E9">
+        <v>0.01822733023811918</v>
+      </c>
+      <c r="F9">
+        <v>0.004463835976682248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.230561115063051</v>
+      </c>
+      <c r="C10">
+        <v>0.1152805575315255</v>
+      </c>
+      <c r="D10">
+        <v>0.01375033156098918</v>
+      </c>
+      <c r="E10">
+        <v>0.02479226448117747</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0.009114768775665239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.01407337977130332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.01513524398915312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.01539590341845318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.008309922518124291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.006770554443344255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0.004494791868018921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.004463835976682248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -788,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2602149606003034</v>
+        <v>0.01539590341845318</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -799,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1268498535826793</v>
+        <v>0.01513524398915312</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -810,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09350902958561932</v>
+        <v>0.01407337977130332</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -821,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09313165146498364</v>
+        <v>0.009114768775665239</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -832,10 +1345,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08960515027933041</v>
+        <v>0.008309922518124291</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -843,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08700894109991579</v>
+        <v>0.006770554443344255</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -854,10 +1367,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08478331760017842</v>
+        <v>0.004494791868018921</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -865,10 +1378,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08465875506440806</v>
+        <v>0.004463835976682248</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -876,10 +1389,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08023834072258169</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/MOORA.xlsx
+++ b/Experimentos2/MOORA.xlsx
@@ -40,10 +40,10 @@
     <t>MOORA</t>
   </si>
   <si>
-    <t>08:19:34.171939</t>
-  </si>
-  <si>
-    <t>08:19:34.321234</t>
+    <t>17:25:59.677225</t>
+  </si>
+  <si>
+    <t>17:25:59.737771</t>
   </si>
   <si>
     <t>C1</t>
@@ -488,13 +488,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45344</v>
+        <v>45351</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>1.727951388888889E-06</v>
+        <v>7.007638888888889E-07</v>
       </c>
     </row>
   </sheetData>
